--- a/main/main/utils/test/chi_phi.xlsx
+++ b/main/main/utils/test/chi_phi.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CE31DD-7253-4D4B-B2F1-00D588B57DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D12659E-52BA-4014-88A0-676986390ADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="847" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="847" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CPBANHANG" sheetId="7" r:id="rId1"/>
@@ -1236,6 +1236,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1248,11 +1253,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1620,22 +1620,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
       <c r="F2" s="13" t="s">
         <v>185</v>
       </c>
@@ -1645,11 +1645,11 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
     </row>
     <row r="4" spans="1:9" ht="26.25">
       <c r="A4" s="1" t="s">
@@ -1980,13 +1980,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
       <c r="F1" s="15" t="s">
         <v>184</v>
       </c>
@@ -1996,20 +1996,20 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
     </row>
     <row r="4" spans="1:9" ht="26.25">
       <c r="A4" s="1" t="s">
@@ -2714,22 +2714,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
       <c r="F2" s="15" t="s">
         <v>184</v>
       </c>
@@ -2739,11 +2739,11 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
     </row>
     <row r="4" spans="1:9" ht="26.25">
       <c r="A4" s="1" t="s">
@@ -2949,22 +2949,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
     </row>
     <row r="2" spans="1:9" ht="15.75">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
       <c r="F2" s="13" t="s">
         <v>184</v>
       </c>
@@ -2974,11 +2974,11 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="25.5" customHeight="1">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
     </row>
     <row r="4" spans="1:9" ht="26.25">
       <c r="A4" s="10" t="s">
@@ -4233,7 +4233,7 @@
   </sheetPr>
   <dimension ref="A1:I202"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
@@ -4241,7 +4241,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7" style="26" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="100" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="96" customWidth="1"/>
     <col min="3" max="3" width="19.85546875" style="52" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.85546875" style="26" customWidth="1"/>
     <col min="5" max="5" width="7.5703125" style="82" bestFit="1" customWidth="1"/>
@@ -4252,13 +4252,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
       <c r="H1" s="24" t="s">
         <v>185</v>
       </c>
@@ -4268,26 +4268,26 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
     </row>
     <row r="4" spans="1:9" ht="26.25">
       <c r="A4" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="B4" s="98"/>
+      <c r="B4" s="94"/>
       <c r="C4" s="29"/>
       <c r="D4" s="28"/>
       <c r="E4" s="83"/>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="6" spans="1:9" s="24" customFormat="1">
       <c r="A6" s="30"/>
-      <c r="B6" s="99" t="s">
+      <c r="B6" s="95" t="s">
         <v>71</v>
       </c>
       <c r="C6" s="30" t="s">
@@ -8595,13 +8595,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
       <c r="H1" s="13" t="s">
         <v>184</v>
       </c>
@@ -8611,33 +8611,33 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="100" t="s">
         <v>187</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
     </row>
     <row r="6" spans="1:10" s="13" customFormat="1">
       <c r="A6" s="2" t="s">
@@ -9096,8 +9096,8 @@
   </sheetPr>
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9109,22 +9109,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="96"/>
+      <c r="B1" s="99"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="96"/>
+      <c r="B2" s="99"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="96"/>
+      <c r="B3" s="99"/>
     </row>
     <row r="4" spans="1:4" ht="26.25">
       <c r="A4" s="54" t="s">
